--- a/biology/Zoologie/Ischyropsalis_nodifera/Ischyropsalis_nodifera.xlsx
+++ b/biology/Zoologie/Ischyropsalis_nodifera/Ischyropsalis_nodifera.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ischyropsalis nodifera est une espèce d'opilions dyspnois de la famille des Ischyropsalididae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en France dans les Pyrénées-Atlantiques et en Espagne en Navarre, au Pays basque, en Cantabrie, aux Asturies et dans le Nord de la province de Burgos[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en France dans les Pyrénées-Atlantiques et en Espagne en Navarre, au Pays basque, en Cantabrie, aux Asturies et dans le Nord de la province de Burgos.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mâle syntype mesure 5 mm et la femelle syntype 5,7 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mâle syntype mesure 5 mm et la femelle syntype 5,7 mm.
 </t>
         </is>
       </c>
@@ -573,11 +589,13 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce a été décrite par Simon en 1879.
-Ischyropsalis sharpi[3] a été placée en synonymie par Simon en 1881[4].
-Ischyropsalis asturica[5], Ischyropsalis corsica[5], Ischyropsalis janetscheki[5] et Ischyropsalis moreana[5] ont été placées en synonymie par Martens en 1969[6].
+Ischyropsalis sharpi a été placée en synonymie par Simon en 1881.
+Ischyropsalis asturica, Ischyropsalis corsica, Ischyropsalis janetscheki et Ischyropsalis moreana ont été placées en synonymie par Martens en 1969.
 </t>
         </is>
       </c>
@@ -606,7 +624,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Simon, 1879 : « Les Ordres des Chernetes, Scorpiones et Opiliones. » Les Arachnides de France, vol. 7, p. 1-332.</t>
         </is>
